--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.16870771403156</v>
+        <v>0.04156866666666666</v>
       </c>
       <c r="H2">
-        <v>1.16870771403156</v>
+        <v>0.124706</v>
       </c>
       <c r="I2">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="J2">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4754615933908</v>
+        <v>39.96608766666667</v>
       </c>
       <c r="N2">
-        <v>17.4754615933908</v>
+        <v>119.898263</v>
       </c>
       <c r="O2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="P2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="Q2">
-        <v>20.42370677045809</v>
+        <v>1.661336976186445</v>
       </c>
       <c r="R2">
-        <v>20.42370677045809</v>
+        <v>14.952032785678</v>
       </c>
       <c r="S2">
-        <v>0.1043144226105338</v>
+        <v>0.006236534162975677</v>
       </c>
       <c r="T2">
-        <v>0.1043144226105338</v>
+        <v>0.006236534162975677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.16870771403156</v>
+        <v>0.04156866666666666</v>
       </c>
       <c r="H3">
-        <v>1.16870771403156</v>
+        <v>0.124706</v>
       </c>
       <c r="I3">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="J3">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.23356023253579</v>
+        <v>85.11961100000001</v>
       </c>
       <c r="N3">
-        <v>84.23356023253579</v>
+        <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.6586435346085682</v>
+        <v>0.5571899111219771</v>
       </c>
       <c r="P3">
-        <v>0.6586435346085682</v>
+        <v>0.557189911121977</v>
       </c>
       <c r="Q3">
-        <v>98.44441162410664</v>
+        <v>3.538308736455333</v>
       </c>
       <c r="R3">
-        <v>98.44441162410664</v>
+        <v>31.844778628098</v>
       </c>
       <c r="S3">
-        <v>0.5028064725574828</v>
+        <v>0.01328254510094196</v>
       </c>
       <c r="T3">
-        <v>0.5028064725574828</v>
+        <v>0.01328254510094196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.16870771403156</v>
+        <v>0.04156866666666666</v>
       </c>
       <c r="H4">
-        <v>1.16870771403156</v>
+        <v>0.124706</v>
       </c>
       <c r="I4">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="J4">
-        <v>0.763396960779856</v>
+        <v>0.02383845226880681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.1804294576054</v>
+        <v>27.68018833333333</v>
       </c>
       <c r="N4">
-        <v>26.1804294576054</v>
+        <v>83.040565</v>
       </c>
       <c r="O4">
-        <v>0.2047114065691248</v>
+        <v>0.1811935169357105</v>
       </c>
       <c r="P4">
-        <v>0.2047114065691248</v>
+        <v>0.1811935169357105</v>
       </c>
       <c r="Q4">
-        <v>30.59726986376252</v>
+        <v>1.150628522098889</v>
       </c>
       <c r="R4">
-        <v>30.59726986376252</v>
+        <v>10.35565669889</v>
       </c>
       <c r="S4">
-        <v>0.1562760656118393</v>
+        <v>0.004319373004889172</v>
       </c>
       <c r="T4">
-        <v>0.1562760656118393</v>
+        <v>0.004319373004889172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.362222816314873</v>
+        <v>1.218041</v>
       </c>
       <c r="H5">
-        <v>0.362222816314873</v>
+        <v>3.654123</v>
       </c>
       <c r="I5">
-        <v>0.236603039220144</v>
+        <v>0.6985119939686074</v>
       </c>
       <c r="J5">
-        <v>0.236603039220144</v>
+        <v>0.6985119939686074</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4754615933908</v>
+        <v>39.96608766666667</v>
       </c>
       <c r="N5">
-        <v>17.4754615933908</v>
+        <v>119.898263</v>
       </c>
       <c r="O5">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="P5">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="Q5">
-        <v>6.330010914760414</v>
+        <v>48.68033338759435</v>
       </c>
       <c r="R5">
-        <v>6.330010914760414</v>
+        <v>438.1230004883491</v>
       </c>
       <c r="S5">
-        <v>0.0323306362117732</v>
+        <v>0.1827423133226563</v>
       </c>
       <c r="T5">
-        <v>0.0323306362117732</v>
+        <v>0.1827423133226563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.362222816314873</v>
+        <v>1.218041</v>
       </c>
       <c r="H6">
-        <v>0.362222816314873</v>
+        <v>3.654123</v>
       </c>
       <c r="I6">
-        <v>0.236603039220144</v>
+        <v>0.6985119939686074</v>
       </c>
       <c r="J6">
-        <v>0.236603039220144</v>
+        <v>0.6985119939686074</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.23356023253579</v>
+        <v>85.11961100000001</v>
       </c>
       <c r="N6">
-        <v>84.23356023253579</v>
+        <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.6586435346085682</v>
+        <v>0.5571899111219771</v>
       </c>
       <c r="P6">
-        <v>0.6586435346085682</v>
+        <v>0.557189911121977</v>
       </c>
       <c r="Q6">
-        <v>30.5113174156576</v>
+        <v>103.679176102051</v>
       </c>
       <c r="R6">
-        <v>30.5113174156576</v>
+        <v>933.1125849184591</v>
       </c>
       <c r="S6">
-        <v>0.1558370620510854</v>
+        <v>0.3892038358370034</v>
       </c>
       <c r="T6">
-        <v>0.1558370620510854</v>
+        <v>0.3892038358370033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.218041</v>
+      </c>
+      <c r="H7">
+        <v>3.654123</v>
+      </c>
+      <c r="I7">
+        <v>0.6985119939686074</v>
+      </c>
+      <c r="J7">
+        <v>0.6985119939686074</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N7">
+        <v>83.040565</v>
+      </c>
+      <c r="O7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q7">
+        <v>33.71560427772167</v>
+      </c>
+      <c r="R7">
+        <v>303.440438499495</v>
+      </c>
+      <c r="S7">
+        <v>0.1265658448089478</v>
+      </c>
+      <c r="T7">
+        <v>0.1265658448089478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4841556666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.452467</v>
+      </c>
+      <c r="I8">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="J8">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.96608766666667</v>
+      </c>
+      <c r="N8">
+        <v>119.898263</v>
+      </c>
+      <c r="O8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="P8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="Q8">
+        <v>19.34980781831345</v>
+      </c>
+      <c r="R8">
+        <v>174.148270364821</v>
+      </c>
+      <c r="S8">
+        <v>0.07263772445668046</v>
+      </c>
+      <c r="T8">
+        <v>0.07263772445668046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.362222816314873</v>
-      </c>
-      <c r="H7">
-        <v>0.362222816314873</v>
-      </c>
-      <c r="I7">
-        <v>0.236603039220144</v>
-      </c>
-      <c r="J7">
-        <v>0.236603039220144</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="N7">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="O7">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="P7">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="Q7">
-        <v>9.483148890466691</v>
-      </c>
-      <c r="R7">
-        <v>9.483148890466691</v>
-      </c>
-      <c r="S7">
-        <v>0.04843534095728549</v>
-      </c>
-      <c r="T7">
-        <v>0.04843534095728549</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4841556666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.452467</v>
+      </c>
+      <c r="I9">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="J9">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>85.11961100000001</v>
+      </c>
+      <c r="N9">
+        <v>255.358833</v>
+      </c>
+      <c r="O9">
+        <v>0.5571899111219771</v>
+      </c>
+      <c r="P9">
+        <v>0.557189911121977</v>
+      </c>
+      <c r="Q9">
+        <v>41.21114201011233</v>
+      </c>
+      <c r="R9">
+        <v>370.900278091011</v>
+      </c>
+      <c r="S9">
+        <v>0.1547035301840318</v>
+      </c>
+      <c r="T9">
+        <v>0.1547035301840317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4841556666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.452467</v>
+      </c>
+      <c r="I10">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="J10">
+        <v>0.2776495537625858</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N10">
+        <v>83.040565</v>
+      </c>
+      <c r="O10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q10">
+        <v>13.40152003598389</v>
+      </c>
+      <c r="R10">
+        <v>120.613680323855</v>
+      </c>
+      <c r="S10">
+        <v>0.05030829912187353</v>
+      </c>
+      <c r="T10">
+        <v>0.05030829912187353</v>
       </c>
     </row>
   </sheetData>
